--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H2">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J2">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>856.1216154934631</v>
+        <v>810.0167837142213</v>
       </c>
       <c r="R2">
-        <v>7705.094539441168</v>
+        <v>7290.151053427992</v>
       </c>
       <c r="S2">
-        <v>0.002070524109264967</v>
+        <v>0.003818306908607375</v>
       </c>
       <c r="T2">
-        <v>0.002070524109264967</v>
+        <v>0.003818306908607374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H3">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J3">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>23169.07749019786</v>
+        <v>23447.08802745779</v>
       </c>
       <c r="R3">
-        <v>208521.6974117807</v>
+        <v>211023.7922471202</v>
       </c>
       <c r="S3">
-        <v>0.05603425105115712</v>
+        <v>0.1105263248885389</v>
       </c>
       <c r="T3">
-        <v>0.05603425105115713</v>
+        <v>0.1105263248885389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H4">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J4">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>31622.89266039229</v>
+        <v>16364.69024372827</v>
       </c>
       <c r="R4">
-        <v>284606.0339435306</v>
+        <v>147282.2121935544</v>
       </c>
       <c r="S4">
-        <v>0.0764797436171501</v>
+        <v>0.07714088284483323</v>
       </c>
       <c r="T4">
-        <v>0.0764797436171501</v>
+        <v>0.07714088284483323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H5">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J5">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>2216.285485860431</v>
+        <v>2495.108045278526</v>
       </c>
       <c r="R5">
-        <v>19946.56937274388</v>
+        <v>22455.97240750674</v>
       </c>
       <c r="S5">
-        <v>0.005360070868953644</v>
+        <v>0.01176159368368107</v>
       </c>
       <c r="T5">
-        <v>0.005360070868953645</v>
+        <v>0.01176159368368107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.9318136666667</v>
+        <v>128.4548946666667</v>
       </c>
       <c r="H6">
-        <v>380.795441</v>
+        <v>385.364684</v>
       </c>
       <c r="I6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="J6">
-        <v>0.1973293860115714</v>
+        <v>0.2815548034715028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>23727.50181897025</v>
+        <v>16612.21815855643</v>
       </c>
       <c r="R6">
-        <v>213547.5163707322</v>
+        <v>149509.9634270079</v>
       </c>
       <c r="S6">
-        <v>0.05738479636504561</v>
+        <v>0.07830769514584229</v>
       </c>
       <c r="T6">
-        <v>0.05738479636504561</v>
+        <v>0.07830769514584227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J7">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1027.860192812487</v>
+        <v>960.9757542890633</v>
       </c>
       <c r="R7">
-        <v>9250.741735312386</v>
+        <v>8648.781788601571</v>
       </c>
       <c r="S7">
-        <v>0.002485872651335063</v>
+        <v>0.004529906583887112</v>
       </c>
       <c r="T7">
-        <v>0.002485872651335064</v>
+        <v>0.004529906583887111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J8">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>27816.81016503206</v>
+        <v>27816.81016503205</v>
       </c>
       <c r="R8">
         <v>250351.2914852885</v>
       </c>
       <c r="S8">
-        <v>0.06727475985564045</v>
+        <v>0.1311245897171859</v>
       </c>
       <c r="T8">
-        <v>0.06727475985564046</v>
+        <v>0.1311245897171858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J9">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>37966.46639795955</v>
+        <v>19414.49963365438</v>
       </c>
       <c r="R9">
-        <v>341698.1975816359</v>
+        <v>174730.4967028894</v>
       </c>
       <c r="S9">
-        <v>0.09182163211153464</v>
+        <v>0.09151726182564082</v>
       </c>
       <c r="T9">
-        <v>0.09182163211153466</v>
+        <v>0.09151726182564082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J10">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>2660.873859038096</v>
+        <v>2960.109449645895</v>
       </c>
       <c r="R10">
-        <v>23947.86473134287</v>
+        <v>26640.98504681306</v>
       </c>
       <c r="S10">
-        <v>0.006435304724406128</v>
+        <v>0.01395354588825967</v>
       </c>
       <c r="T10">
-        <v>0.006435304724406128</v>
+        <v>0.01395354588825967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>457.1832650000001</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="J11">
-        <v>0.2369137948193439</v>
+        <v>0.3340268313936494</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>28487.25479329008</v>
+        <v>19708.15814720873</v>
       </c>
       <c r="R11">
-        <v>256385.2931396107</v>
+        <v>177373.4233248786</v>
       </c>
       <c r="S11">
-        <v>0.06889622547642761</v>
+        <v>0.092901527378676</v>
       </c>
       <c r="T11">
-        <v>0.06889622547642761</v>
+        <v>0.09290152737867599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H12">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J12">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1393.28668444572</v>
+        <v>446.442275125822</v>
       </c>
       <c r="R12">
-        <v>12539.58016001148</v>
+        <v>4017.980476132398</v>
       </c>
       <c r="S12">
-        <v>0.00336965405271296</v>
+        <v>0.0021044670402888</v>
       </c>
       <c r="T12">
-        <v>0.00336965405271296</v>
+        <v>0.0021044670402888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H13">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J13">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>37706.28678657656</v>
+        <v>12922.90670330946</v>
       </c>
       <c r="R13">
-        <v>339356.581079189</v>
+        <v>116306.1603297852</v>
       </c>
       <c r="S13">
-        <v>0.09119238955024601</v>
+        <v>0.06091679201790933</v>
       </c>
       <c r="T13">
-        <v>0.09119238955024603</v>
+        <v>0.06091679201790932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H14">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J14">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>51464.36495705709</v>
+        <v>9019.429832847702</v>
       </c>
       <c r="R14">
-        <v>463179.2846135138</v>
+        <v>81174.86849562931</v>
       </c>
       <c r="S14">
-        <v>0.1244662048979786</v>
+        <v>0.04251634279051198</v>
       </c>
       <c r="T14">
-        <v>0.1244662048979786</v>
+        <v>0.04251634279051198</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H15">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J15">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>3606.871968300666</v>
+        <v>1375.183495965543</v>
       </c>
       <c r="R15">
-        <v>32461.847714706</v>
+        <v>12376.65146368988</v>
       </c>
       <c r="S15">
-        <v>0.008723194502096457</v>
+        <v>0.006482424498873856</v>
       </c>
       <c r="T15">
-        <v>0.008723194502096458</v>
+        <v>0.006482424498873855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>206.573929</v>
+        <v>70.798157</v>
       </c>
       <c r="H16">
-        <v>619.7217870000001</v>
+        <v>212.394471</v>
       </c>
       <c r="I16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="J16">
-        <v>0.321141764212203</v>
+        <v>0.1551794599342134</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>38615.08895611488</v>
+        <v>9155.855309053664</v>
       </c>
       <c r="R16">
-        <v>347535.8006050339</v>
+        <v>82402.69778148297</v>
       </c>
       <c r="S16">
-        <v>0.09339032120916903</v>
+        <v>0.04315943358662944</v>
       </c>
       <c r="T16">
-        <v>0.09339032120916903</v>
+        <v>0.04315943358662944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H17">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I17">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J17">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>105.0411432326304</v>
+        <v>130.552502523168</v>
       </c>
       <c r="R17">
-        <v>945.370289093674</v>
+        <v>1174.972522708512</v>
       </c>
       <c r="S17">
-        <v>0.0002540412665583218</v>
+        <v>0.0006154064117467275</v>
       </c>
       <c r="T17">
-        <v>0.0002540412665583218</v>
+        <v>0.0006154064117467275</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H18">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I18">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J18">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>2842.71106250835</v>
+        <v>3779.027892273392</v>
       </c>
       <c r="R18">
-        <v>25584.39956257514</v>
+        <v>34011.25103046053</v>
       </c>
       <c r="S18">
-        <v>0.006875076722838228</v>
+        <v>0.01781381398385724</v>
       </c>
       <c r="T18">
-        <v>0.006875076722838228</v>
+        <v>0.01781381398385724</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H19">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I19">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J19">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>3879.9450186242</v>
+        <v>2637.539502007344</v>
       </c>
       <c r="R19">
-        <v>34919.5051676178</v>
+        <v>23737.8555180661</v>
       </c>
       <c r="S19">
-        <v>0.0093836197548329</v>
+        <v>0.01243299583998815</v>
       </c>
       <c r="T19">
-        <v>0.0093836197548329</v>
+        <v>0.01243299583998815</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H20">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I20">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J20">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>271.9253397550071</v>
+        <v>402.143024596544</v>
       </c>
       <c r="R20">
-        <v>2447.328057795065</v>
+        <v>3619.287221368896</v>
       </c>
       <c r="S20">
-        <v>0.0006576495227938894</v>
+        <v>0.001895646509970322</v>
       </c>
       <c r="T20">
-        <v>0.0006576495227938894</v>
+        <v>0.001895646509970322</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.57379533333333</v>
+        <v>20.703408</v>
       </c>
       <c r="H21">
-        <v>46.721386</v>
+        <v>62.110224</v>
       </c>
       <c r="I21">
-        <v>0.02421116804544315</v>
+        <v>0.04537891674549766</v>
       </c>
       <c r="J21">
-        <v>0.02421116804544314</v>
+        <v>0.04537891674549767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>2911.226479992998</v>
+        <v>2677.43421699952</v>
       </c>
       <c r="R21">
-        <v>26201.03831993698</v>
+        <v>24096.90795299568</v>
       </c>
       <c r="S21">
-        <v>0.007040780778419805</v>
+        <v>0.01262105399993523</v>
       </c>
       <c r="T21">
-        <v>0.007040780778419804</v>
+        <v>0.01262105399993523</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H22">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J22">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>956.2312818051046</v>
+        <v>528.9544865365347</v>
       </c>
       <c r="R22">
-        <v>8606.081536245942</v>
+        <v>4760.590378828812</v>
       </c>
       <c r="S22">
-        <v>0.002312638633553961</v>
+        <v>0.002493418174645974</v>
       </c>
       <c r="T22">
-        <v>0.002312638633553961</v>
+        <v>0.002493418174645974</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H23">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J23">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>25878.32880953916</v>
+        <v>15311.34003356222</v>
       </c>
       <c r="R23">
-        <v>232904.9592858524</v>
+        <v>137802.06030206</v>
       </c>
       <c r="S23">
-        <v>0.06258655632325419</v>
+        <v>0.07217553587236968</v>
       </c>
       <c r="T23">
-        <v>0.0625865563232542</v>
+        <v>0.07217553587236968</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H24">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J24">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>35320.68182346115</v>
+        <v>10686.41600919553</v>
       </c>
       <c r="R24">
-        <v>317886.1364111503</v>
+        <v>96177.74408275975</v>
       </c>
       <c r="S24">
-        <v>0.08542282071572295</v>
+        <v>0.05037428470193233</v>
       </c>
       <c r="T24">
-        <v>0.08542282071572295</v>
+        <v>0.05037428470193233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H25">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J25">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>2475.444460970453</v>
+        <v>1629.347220302922</v>
       </c>
       <c r="R25">
-        <v>22279.00014873408</v>
+        <v>14664.1249827263</v>
       </c>
       <c r="S25">
-        <v>0.00598684502859031</v>
+        <v>0.007680517086665449</v>
       </c>
       <c r="T25">
-        <v>0.00598684502859031</v>
+        <v>0.007680517086665447</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>141.7744496666667</v>
+        <v>83.88319133333333</v>
       </c>
       <c r="H26">
-        <v>425.323349</v>
+        <v>251.649574</v>
       </c>
       <c r="I26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="J26">
-        <v>0.2204038869114384</v>
+        <v>0.1838599884551367</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>26502.05189050049</v>
+        <v>10848.05587113891</v>
       </c>
       <c r="R26">
-        <v>238518.4670145044</v>
+        <v>97632.50284025019</v>
       </c>
       <c r="S26">
-        <v>0.06409502621031701</v>
+        <v>0.05113623261952327</v>
       </c>
       <c r="T26">
-        <v>0.06409502621031701</v>
+        <v>0.05113623261952326</v>
       </c>
     </row>
   </sheetData>
